--- a/product-definitions/spreadsheet/mean-winds-profile.xlsx
+++ b/product-definitions/spreadsheet/mean-winds-profile.xlsx
@@ -12,14 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="68">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -29,21 +44,12 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -53,18 +59,6 @@
     <t>dimension</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>time, index</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>standard_name</t>
   </si>
   <si>
@@ -110,10 +104,13 @@
     <t>wind_speed</t>
   </si>
   <si>
+    <t>time, altitude</t>
+  </si>
+  <si>
     <t>m s-1</t>
   </si>
   <si>
-    <t>Wind speed</t>
+    <t>Mean Wind Speed</t>
   </si>
   <si>
     <t>&lt;derived from file&gt;</t>
@@ -125,13 +122,79 @@
     <t>time: mean</t>
   </si>
   <si>
+    <t>wind_speed_of_gust</t>
+  </si>
+  <si>
+    <t>Maximum Wind Speed Observed in Averaging Period</t>
+  </si>
+  <si>
+    <t>time: maximum</t>
+  </si>
+  <si>
     <t>wind_from_direction</t>
   </si>
   <si>
     <t>degree</t>
   </si>
   <si>
-    <t>Wind Direction</t>
+    <t>Wind From Direction</t>
+  </si>
+  <si>
+    <t>wind_speed_of_gust_from_direction</t>
+  </si>
+  <si>
+    <t>Direction of Maximum Wind Speed Observed in Averaging Period</t>
+  </si>
+  <si>
+    <t>eastward_wind</t>
+  </si>
+  <si>
+    <t>Eastward Wind Component (U)</t>
+  </si>
+  <si>
+    <t>northward_wind</t>
+  </si>
+  <si>
+    <t>Northward Wind Component (V)</t>
+  </si>
+  <si>
+    <t>upward_air_velocity</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity Component (W)</t>
+  </si>
+  <si>
+    <t>divergence_of_wind</t>
+  </si>
+  <si>
+    <t>Divergence of Horizontal Winds Speed</t>
+  </si>
+  <si>
+    <t>time: standard_deviation</t>
+  </si>
+  <si>
+    <t>divergence_of_wind_from_direction</t>
+  </si>
+  <si>
+    <t>Divergence of Wind from Direction</t>
+  </si>
+  <si>
+    <t>divergence_of_eastward_wind</t>
+  </si>
+  <si>
+    <t>Divergence of Eastward Wind Component (Sigma U)</t>
+  </si>
+  <si>
+    <t>divergence_of_northward_wind</t>
+  </si>
+  <si>
+    <t>Divergence of Northward Wind Component (Sigma V)</t>
+  </si>
+  <si>
+    <t>divergence_of_upward_air_velocity</t>
+  </si>
+  <si>
+    <t>Divergence of Upward Air Velocity (Sigma W)</t>
   </si>
   <si>
     <t>qc_flag</t>
@@ -168,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -181,6 +244,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <name val="Arial"/>
     </font>
@@ -189,102 +256,108 @@
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -319,128 +392,128 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" ht="12.0" customHeight="1"/>
     <row r="6" ht="12.0" customHeight="1"/>
@@ -1462,530 +1535,1668 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12">
         <v>-1.0E20</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13" t="s">
+    </row>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13" t="s">
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12" t="s">
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" t="s">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="B16" t="s">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" ht="12.0" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" ht="12.0" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" ht="12.0" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" ht="12.0" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" ht="12.0" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" ht="12.0" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="C28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" ht="12.0" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="B19" t="s">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" ht="12.0" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" ht="12.0" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" ht="12.0" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C32" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" ht="12.0" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" ht="12.0" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" ht="12.0" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" ht="12.0" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" ht="12.0" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" ht="12.0" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" ht="12.0" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" ht="12.0" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" ht="12.0" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" ht="12.0" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" ht="12.0" customHeight="1">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" ht="12.0" customHeight="1">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="18">
         <v>-1.0E20</v>
       </c>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" ht="12.0" customHeight="1">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" ht="12.0" customHeight="1">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" ht="12.0" customHeight="1">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="C47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" ht="12.0" customHeight="1">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" ht="12.0" customHeight="1">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" ht="12.0" customHeight="1">
+      <c r="A50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" ht="12.0" customHeight="1">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" ht="12.0" customHeight="1">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" ht="12.0" customHeight="1">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" ht="12.0" customHeight="1">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" ht="12.0" customHeight="1">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" ht="12.0" customHeight="1">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" ht="12.0" customHeight="1">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" ht="12.0" customHeight="1">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" ht="12.0" customHeight="1">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" ht="12.0" customHeight="1">
-      <c r="B23" t="s">
+      <c r="C59" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" ht="12.0" customHeight="1">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" ht="12.0" customHeight="1">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" ht="12.0" customHeight="1">
+      <c r="A62" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" ht="12.0" customHeight="1">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" ht="12.0" customHeight="1">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" ht="12.0" customHeight="1">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" ht="12.0" customHeight="1">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" ht="12.0" customHeight="1">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" ht="12.0" customHeight="1">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" ht="12.0" customHeight="1">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" ht="12.0" customHeight="1">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" ht="12.0" customHeight="1">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" ht="12.0" customHeight="1">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" ht="12.0" customHeight="1">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" ht="12.0" customHeight="1">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" ht="12.0" customHeight="1">
+      <c r="A74" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" ht="12.0" customHeight="1">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" ht="12.0" customHeight="1">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" ht="12.0" customHeight="1">
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="12.0" customHeight="1">
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="12.0" customHeight="1">
-      <c r="B28" t="s">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" ht="12.0" customHeight="1">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" ht="12.0" customHeight="1">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" ht="12.0" customHeight="1">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" ht="12.0" customHeight="1">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" ht="12.0" customHeight="1">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" ht="12.0" customHeight="1">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" ht="12.0" customHeight="1">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" ht="12.0" customHeight="1">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" ht="12.0" customHeight="1">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+    </row>
+    <row r="86" ht="12.0" customHeight="1">
+      <c r="A86" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" ht="12.0" customHeight="1">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C87" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" ht="12.0" customHeight="1">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" ht="12.0" customHeight="1">
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" ht="12.0" customHeight="1">
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" ht="12.0" customHeight="1">
-      <c r="B31" t="s">
+      <c r="C88" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" ht="12.0" customHeight="1">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" ht="12.0" customHeight="1">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" ht="12.0" customHeight="1">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" ht="12.0" customHeight="1">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" ht="12.0" customHeight="1">
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="17">
+      <c r="C92" s="18">
         <v>-1.0E20</v>
       </c>
-    </row>
-    <row r="33" ht="12.0" customHeight="1">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="18" t="s">
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" ht="12.0" customHeight="1">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" ht="12.0" customHeight="1">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" ht="12.0" customHeight="1">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" ht="12.0" customHeight="1">
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="C95" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="13"/>
+    </row>
+    <row r="96" ht="12.0" customHeight="1">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="13"/>
+    </row>
+    <row r="97" ht="12.0" customHeight="1">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+    </row>
+    <row r="98" ht="12.0" customHeight="1">
+      <c r="A98" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" ht="12.0" customHeight="1">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="13"/>
+    </row>
+    <row r="100" ht="12.0" customHeight="1">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" ht="12.0" customHeight="1">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="13"/>
+    </row>
+    <row r="102" ht="12.0" customHeight="1">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" ht="12.0" customHeight="1">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="13"/>
+    </row>
+    <row r="104" ht="12.0" customHeight="1">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" ht="12.0" customHeight="1">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="13"/>
+    </row>
+    <row r="106" ht="12.0" customHeight="1">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="13"/>
+    </row>
+    <row r="107" ht="12.0" customHeight="1">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" ht="12.0" customHeight="1">
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" ht="12.0" customHeight="1">
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="C107" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" s="13"/>
+    </row>
+    <row r="108" ht="12.0" customHeight="1">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" ht="12.0" customHeight="1">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+    </row>
+    <row r="110" ht="12.0" customHeight="1">
+      <c r="A110" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+    </row>
+    <row r="111" ht="12.0" customHeight="1">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="13"/>
+    </row>
+    <row r="112" ht="12.0" customHeight="1">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" ht="12.0" customHeight="1"/>
-    <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="D112" s="13"/>
+    </row>
+    <row r="113" ht="12.0" customHeight="1">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" ht="12.0" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
+      <c r="D113" s="13"/>
+    </row>
+    <row r="114" ht="12.0" customHeight="1">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" ht="12.0" customHeight="1">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="13"/>
+    </row>
+    <row r="116" ht="12.0" customHeight="1">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D116" s="13"/>
+    </row>
+    <row r="117" ht="12.0" customHeight="1">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="13"/>
+    </row>
+    <row r="118" ht="12.0" customHeight="1">
+      <c r="A118" s="13"/>
+      <c r="B118" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="13"/>
+    </row>
+    <row r="119" ht="12.0" customHeight="1">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="13"/>
+    </row>
+    <row r="120" ht="12.0" customHeight="1">
+      <c r="A120" s="13"/>
+      <c r="B120" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="13"/>
+    </row>
+    <row r="121" ht="12.0" customHeight="1">
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+    </row>
+    <row r="122" ht="12.0" customHeight="1">
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+    </row>
+    <row r="123" ht="12.0" customHeight="1">
+      <c r="A123" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+    </row>
+    <row r="124" ht="12.0" customHeight="1">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C124" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="13"/>
+    </row>
+    <row r="125" ht="12.0" customHeight="1">
+      <c r="A125" s="13"/>
+      <c r="B125" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="22">
+      <c r="C125" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="13"/>
+    </row>
+    <row r="126" ht="12.0" customHeight="1">
+      <c r="A126" s="13"/>
+      <c r="B126" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" s="13"/>
+    </row>
+    <row r="127" ht="12.0" customHeight="1">
+      <c r="A127" s="13"/>
+      <c r="B127" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" ht="12.0" customHeight="1">
+      <c r="A128" s="13"/>
+      <c r="B128" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" s="13"/>
+    </row>
+    <row r="129" ht="12.0" customHeight="1">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D129" s="13"/>
+    </row>
+    <row r="130" ht="12.0" customHeight="1">
+      <c r="A130" s="13"/>
+      <c r="B130" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="13"/>
+    </row>
+    <row r="131" ht="12.0" customHeight="1">
+      <c r="A131" s="13"/>
+      <c r="B131" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="13"/>
+    </row>
+    <row r="132" ht="12.0" customHeight="1">
+      <c r="A132" s="13"/>
+      <c r="B132" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="13"/>
+    </row>
+    <row r="133" ht="12.0" customHeight="1">
+      <c r="A133" s="13"/>
+      <c r="B133" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="13"/>
+    </row>
+    <row r="134" ht="12.0" customHeight="1">
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+    </row>
+    <row r="135" ht="12.0" customHeight="1">
+      <c r="A135" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+    </row>
+    <row r="136" ht="12.0" customHeight="1">
+      <c r="A136" s="13"/>
+      <c r="B136" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="13"/>
+    </row>
+    <row r="137" ht="12.0" customHeight="1">
+      <c r="A137" s="13"/>
+      <c r="B137" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="13"/>
+    </row>
+    <row r="138" ht="12.0" customHeight="1">
+      <c r="A138" s="13"/>
+      <c r="B138" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="13"/>
+    </row>
+    <row r="139" ht="12.0" customHeight="1">
+      <c r="A139" s="13"/>
+      <c r="B139" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" ht="12.0" customHeight="1">
+      <c r="A140" s="13"/>
+      <c r="B140" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" s="13"/>
+    </row>
+    <row r="141" ht="12.0" customHeight="1">
+      <c r="A141" s="13"/>
+      <c r="B141" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D141" s="13"/>
+    </row>
+    <row r="142" ht="12.0" customHeight="1">
+      <c r="A142" s="13"/>
+      <c r="B142" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" s="13"/>
+    </row>
+    <row r="143" ht="12.0" customHeight="1">
+      <c r="A143" s="13"/>
+      <c r="B143" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" s="13"/>
+    </row>
+    <row r="144" ht="12.0" customHeight="1">
+      <c r="A144" s="13"/>
+      <c r="B144" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" s="13"/>
+    </row>
+    <row r="145" ht="12.0" customHeight="1">
+      <c r="A145" s="13"/>
+      <c r="B145" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="13"/>
+    </row>
+    <row r="146" ht="12.0" customHeight="1">
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+    </row>
+    <row r="147" ht="12.0" customHeight="1">
+      <c r="A147" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+    </row>
+    <row r="148" ht="12.0" customHeight="1">
+      <c r="A148" s="13"/>
+      <c r="B148" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="13"/>
+    </row>
+    <row r="149" ht="12.0" customHeight="1">
+      <c r="A149" s="13"/>
+      <c r="B149" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="13"/>
+    </row>
+    <row r="150" ht="12.0" customHeight="1">
+      <c r="A150" s="13"/>
+      <c r="B150" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D150" s="13"/>
+    </row>
+    <row r="151" ht="12.0" customHeight="1">
+      <c r="A151" s="13"/>
+      <c r="B151" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" ht="12.0" customHeight="1">
+      <c r="A152" s="13"/>
+      <c r="B152" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D152" s="13"/>
+    </row>
+    <row r="153" ht="12.0" customHeight="1">
+      <c r="A153" s="13"/>
+      <c r="B153" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="18">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D153" s="13"/>
+    </row>
+    <row r="154" ht="12.0" customHeight="1">
+      <c r="A154" s="13"/>
+      <c r="B154" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="13"/>
+    </row>
+    <row r="155" ht="12.0" customHeight="1">
+      <c r="A155" s="13"/>
+      <c r="B155" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D155" s="13"/>
+    </row>
+    <row r="156" ht="12.0" customHeight="1">
+      <c r="A156" s="13"/>
+      <c r="B156" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" s="13"/>
+    </row>
+    <row r="157" ht="12.0" customHeight="1">
+      <c r="A157" s="13"/>
+      <c r="B157" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="13"/>
+    </row>
+    <row r="158" ht="12.0" customHeight="1"/>
+    <row r="159" ht="12.0" customHeight="1">
+      <c r="A159" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B159" s="13"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+    </row>
+    <row r="160" ht="12.0" customHeight="1">
+      <c r="A160" s="13"/>
+      <c r="B160" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+    </row>
+    <row r="161" ht="12.0" customHeight="1">
+      <c r="A161" s="13"/>
+      <c r="B161" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+    </row>
+    <row r="162" ht="12.0" customHeight="1">
+      <c r="A162" s="13"/>
+      <c r="B162" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="24">
         <v>1.0</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" ht="12.0" customHeight="1"/>
-    <row r="47" ht="12.0" customHeight="1"/>
-    <row r="48" ht="12.0" customHeight="1"/>
-    <row r="49" ht="12.0" customHeight="1"/>
-    <row r="50" ht="12.0" customHeight="1"/>
-    <row r="51" ht="12.0" customHeight="1"/>
-    <row r="52" ht="12.0" customHeight="1"/>
-    <row r="53" ht="12.0" customHeight="1"/>
-    <row r="54" ht="12.0" customHeight="1"/>
-    <row r="55" ht="12.0" customHeight="1"/>
-    <row r="56" ht="12.0" customHeight="1"/>
-    <row r="57" ht="12.0" customHeight="1"/>
-    <row r="58" ht="12.0" customHeight="1"/>
-    <row r="59" ht="12.0" customHeight="1"/>
-    <row r="60" ht="12.0" customHeight="1"/>
-    <row r="61" ht="12.0" customHeight="1"/>
-    <row r="62" ht="12.0" customHeight="1"/>
-    <row r="63" ht="12.0" customHeight="1"/>
-    <row r="64" ht="12.0" customHeight="1"/>
-    <row r="65" ht="12.0" customHeight="1"/>
-    <row r="66" ht="12.0" customHeight="1"/>
-    <row r="67" ht="12.0" customHeight="1"/>
-    <row r="68" ht="12.0" customHeight="1"/>
-    <row r="69" ht="12.0" customHeight="1"/>
-    <row r="70" ht="12.0" customHeight="1"/>
-    <row r="71" ht="12.0" customHeight="1"/>
-    <row r="72" ht="12.0" customHeight="1"/>
-    <row r="73" ht="12.0" customHeight="1"/>
-    <row r="74" ht="12.0" customHeight="1"/>
-    <row r="75" ht="12.0" customHeight="1"/>
-    <row r="76" ht="12.0" customHeight="1"/>
-    <row r="77" ht="12.0" customHeight="1"/>
-    <row r="78" ht="12.0" customHeight="1"/>
-    <row r="79" ht="12.0" customHeight="1"/>
-    <row r="80" ht="12.0" customHeight="1"/>
-    <row r="81" ht="12.0" customHeight="1"/>
-    <row r="82" ht="12.0" customHeight="1"/>
-    <row r="83" ht="12.0" customHeight="1"/>
-    <row r="84" ht="12.0" customHeight="1"/>
-    <row r="85" ht="12.0" customHeight="1"/>
-    <row r="86" ht="12.0" customHeight="1"/>
-    <row r="87" ht="12.0" customHeight="1"/>
-    <row r="88" ht="12.0" customHeight="1"/>
-    <row r="89" ht="12.0" customHeight="1"/>
-    <row r="90" ht="12.0" customHeight="1"/>
-    <row r="91" ht="12.0" customHeight="1"/>
-    <row r="92" ht="12.0" customHeight="1"/>
-    <row r="93" ht="12.0" customHeight="1"/>
-    <row r="94" ht="12.0" customHeight="1"/>
-    <row r="95" ht="12.0" customHeight="1"/>
-    <row r="96" ht="12.0" customHeight="1"/>
-    <row r="97" ht="12.0" customHeight="1"/>
-    <row r="98" ht="12.0" customHeight="1"/>
-    <row r="99" ht="12.0" customHeight="1"/>
-    <row r="100" ht="12.0" customHeight="1"/>
-    <row r="101" ht="12.0" customHeight="1"/>
-    <row r="102" ht="12.0" customHeight="1"/>
-    <row r="103" ht="12.0" customHeight="1"/>
-    <row r="104" ht="12.0" customHeight="1"/>
-    <row r="105" ht="12.0" customHeight="1"/>
-    <row r="106" ht="12.0" customHeight="1"/>
-    <row r="107" ht="12.0" customHeight="1"/>
-    <row r="108" ht="12.0" customHeight="1"/>
-    <row r="109" ht="12.0" customHeight="1"/>
-    <row r="110" ht="12.0" customHeight="1"/>
-    <row r="111" ht="12.0" customHeight="1"/>
-    <row r="112" ht="12.0" customHeight="1"/>
-    <row r="113" ht="12.0" customHeight="1"/>
-    <row r="114" ht="12.0" customHeight="1"/>
-    <row r="115" ht="12.0" customHeight="1"/>
-    <row r="116" ht="12.0" customHeight="1"/>
-    <row r="117" ht="12.0" customHeight="1"/>
-    <row r="118" ht="12.0" customHeight="1"/>
-    <row r="119" ht="12.0" customHeight="1"/>
-    <row r="120" ht="12.0" customHeight="1"/>
-    <row r="121" ht="12.0" customHeight="1"/>
-    <row r="122" ht="12.0" customHeight="1"/>
-    <row r="123" ht="12.0" customHeight="1"/>
-    <row r="124" ht="12.0" customHeight="1"/>
-    <row r="125" ht="12.0" customHeight="1"/>
-    <row r="126" ht="12.0" customHeight="1"/>
-    <row r="127" ht="12.0" customHeight="1"/>
-    <row r="128" ht="12.0" customHeight="1"/>
-    <row r="129" ht="12.0" customHeight="1"/>
-    <row r="130" ht="12.0" customHeight="1"/>
-    <row r="131" ht="12.0" customHeight="1"/>
-    <row r="132" ht="12.0" customHeight="1"/>
-    <row r="133" ht="12.0" customHeight="1"/>
-    <row r="134" ht="12.0" customHeight="1"/>
-    <row r="135" ht="12.0" customHeight="1"/>
-    <row r="136" ht="12.0" customHeight="1"/>
-    <row r="137" ht="12.0" customHeight="1"/>
-    <row r="138" ht="12.0" customHeight="1"/>
-    <row r="139" ht="12.0" customHeight="1"/>
-    <row r="140" ht="12.0" customHeight="1"/>
-    <row r="141" ht="12.0" customHeight="1"/>
-    <row r="142" ht="12.0" customHeight="1"/>
-    <row r="143" ht="12.0" customHeight="1"/>
-    <row r="144" ht="12.0" customHeight="1"/>
-    <row r="145" ht="12.0" customHeight="1"/>
-    <row r="146" ht="12.0" customHeight="1"/>
-    <row r="147" ht="12.0" customHeight="1"/>
-    <row r="148" ht="12.0" customHeight="1"/>
-    <row r="149" ht="12.0" customHeight="1"/>
-    <row r="150" ht="12.0" customHeight="1"/>
-    <row r="151" ht="12.0" customHeight="1"/>
-    <row r="152" ht="12.0" customHeight="1"/>
-    <row r="153" ht="12.0" customHeight="1"/>
-    <row r="154" ht="12.0" customHeight="1"/>
-    <row r="155" ht="12.0" customHeight="1"/>
-    <row r="156" ht="12.0" customHeight="1"/>
-    <row r="157" ht="12.0" customHeight="1"/>
-    <row r="158" ht="12.0" customHeight="1"/>
-    <row r="159" ht="12.0" customHeight="1"/>
-    <row r="160" ht="12.0" customHeight="1"/>
-    <row r="161" ht="12.0" customHeight="1"/>
-    <row r="162" ht="12.0" customHeight="1"/>
-    <row r="163" ht="12.0" customHeight="1"/>
-    <row r="164" ht="12.0" customHeight="1"/>
-    <row r="165" ht="12.0" customHeight="1"/>
-    <row r="166" ht="12.0" customHeight="1"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" ht="12.0" customHeight="1">
+      <c r="A163" s="13"/>
+      <c r="B163" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+    </row>
+    <row r="164" ht="12.0" customHeight="1">
+      <c r="A164" s="13"/>
+      <c r="B164" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+    </row>
+    <row r="165" ht="12.0" customHeight="1">
+      <c r="A165" s="13"/>
+      <c r="B165" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+    </row>
+    <row r="166" ht="12.0" customHeight="1">
+      <c r="A166" s="13"/>
+      <c r="B166" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+    </row>
     <row r="167" ht="12.0" customHeight="1"/>
     <row r="168" ht="12.0" customHeight="1"/>
     <row r="169" ht="12.0" customHeight="1"/>
